--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +546,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.367777666666666</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N2">
-        <v>19.103333</v>
+        <v>36.411947</v>
       </c>
       <c r="O2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q2">
-        <v>47.85254377057833</v>
+        <v>91.20943908528832</v>
       </c>
       <c r="R2">
-        <v>430.672893935205</v>
+        <v>820.8849517675949</v>
       </c>
       <c r="S2">
-        <v>0.1026887944886925</v>
+        <v>0.2006222292606716</v>
       </c>
       <c r="T2">
-        <v>0.1026887944886925</v>
+        <v>0.2006222292606716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +608,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +626,10 @@
         <v>107.856542</v>
       </c>
       <c r="O3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q3">
         <v>270.1732675129633</v>
@@ -641,10 +638,10 @@
         <v>2431.559407616669</v>
       </c>
       <c r="S3">
-        <v>0.5797762241646014</v>
+        <v>0.5942670381341393</v>
       </c>
       <c r="T3">
-        <v>0.5797762241646014</v>
+        <v>0.5942670381341392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +670,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.107036</v>
+        <v>0.101426</v>
       </c>
       <c r="N4">
-        <v>0.3211079999999999</v>
+        <v>0.304278</v>
       </c>
       <c r="O4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q4">
-        <v>0.8043535976199998</v>
+        <v>0.76219559767</v>
       </c>
       <c r="R4">
-        <v>7.239182378579998</v>
+        <v>6.859760379029999</v>
       </c>
       <c r="S4">
-        <v>0.001726096352959719</v>
+        <v>0.001676508281058924</v>
       </c>
       <c r="T4">
-        <v>0.001726096352959719</v>
+        <v>0.001676508281058924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +732,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.505362</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N5">
-        <v>55.516086</v>
+        <v>32.477411</v>
       </c>
       <c r="O5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q5">
-        <v>139.06400183079</v>
+        <v>81.35369526524833</v>
       </c>
       <c r="R5">
-        <v>1251.57601647711</v>
+        <v>732.183257387235</v>
       </c>
       <c r="S5">
-        <v>0.2984233141970868</v>
+        <v>0.1789437569881956</v>
       </c>
       <c r="T5">
-        <v>0.2984233141970868</v>
+        <v>0.1789437569881956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,45 +794,45 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03953766666666667</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N6">
-        <v>0.118613</v>
+        <v>0.392023</v>
       </c>
       <c r="O6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q6">
-        <v>0.2971174597783334</v>
+        <v>0.9819908267616666</v>
       </c>
       <c r="R6">
-        <v>2.674057138005</v>
+        <v>8.837917440855</v>
       </c>
       <c r="S6">
-        <v>0.0006375969041992452</v>
+        <v>0.00215996491979559</v>
       </c>
       <c r="T6">
-        <v>0.0006375969041992452</v>
+        <v>0.00215996491979559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.514794999999999</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>22.544385</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5516093333333333</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N7">
-        <v>1.654828</v>
+        <v>36.411947</v>
       </c>
       <c r="O7">
-        <v>0.008965830998679042</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P7">
-        <v>0.008965830998679042</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q7">
-        <v>4.145231060086666</v>
+        <v>2.083273135658</v>
       </c>
       <c r="R7">
-        <v>37.30707954077999</v>
+        <v>18.749458220922</v>
       </c>
       <c r="S7">
-        <v>0.008895426384816408</v>
+        <v>0.004582320698669784</v>
       </c>
       <c r="T7">
-        <v>0.008895426384816408</v>
+        <v>0.004582320698669783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +903,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.367777666666666</v>
+        <v>35.95218066666666</v>
       </c>
       <c r="N8">
-        <v>19.103333</v>
+        <v>107.856542</v>
       </c>
       <c r="O8">
-        <v>0.1035015452901983</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P8">
-        <v>0.1035015452901983</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q8">
-        <v>0.3787384348728888</v>
+        <v>6.170904193987999</v>
       </c>
       <c r="R8">
-        <v>3.408645913856</v>
+        <v>55.53813774589199</v>
       </c>
       <c r="S8">
-        <v>0.0008127508015058461</v>
+        <v>0.01357338196975698</v>
       </c>
       <c r="T8">
-        <v>0.0008127508015058462</v>
+        <v>0.01357338196975698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +965,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>35.95218066666666</v>
+        <v>0.101426</v>
       </c>
       <c r="N9">
-        <v>107.856542</v>
+        <v>0.304278</v>
       </c>
       <c r="O9">
-        <v>0.584364977915486</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P9">
-        <v>0.584364977915486</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q9">
-        <v>2.138339833571556</v>
+        <v>0.017408961492</v>
       </c>
       <c r="R9">
-        <v>19.245058502144</v>
+        <v>0.156680653428</v>
       </c>
       <c r="S9">
-        <v>0.004588753750884672</v>
+        <v>3.82923598551279E-05</v>
       </c>
       <c r="T9">
-        <v>0.004588753750884673</v>
+        <v>3.829235985512789E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1027,55 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.107036</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N10">
-        <v>0.3211079999999999</v>
+        <v>32.477411</v>
       </c>
       <c r="O10">
-        <v>0.001739757884398759</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P10">
-        <v>0.001739757884398759</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q10">
-        <v>0.006366215850666665</v>
+        <v>1.858162592954</v>
       </c>
       <c r="R10">
-        <v>0.05729594265599999</v>
+        <v>16.723463336586</v>
       </c>
       <c r="S10">
-        <v>1.366153143903942E-05</v>
+        <v>0.00408717261574905</v>
       </c>
       <c r="T10">
-        <v>1.366153143903942E-05</v>
+        <v>0.00408717261574905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1089,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,152 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.505362</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N11">
-        <v>55.516086</v>
+        <v>0.392023</v>
       </c>
       <c r="O11">
-        <v>0.3007852446200642</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P11">
-        <v>0.3007852446200642</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q11">
-        <v>1.100649584128</v>
+        <v>0.022429203922</v>
       </c>
       <c r="R11">
-        <v>9.905846257152001</v>
+        <v>0.201862835298</v>
       </c>
       <c r="S11">
-        <v>0.002361930422977367</v>
+        <v>4.933477210802885E-05</v>
       </c>
       <c r="T11">
-        <v>0.002361930422977367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.178432</v>
-      </c>
-      <c r="I12">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J12">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03953766666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.118613</v>
-      </c>
-      <c r="O12">
-        <v>0.0006426432911736551</v>
-      </c>
-      <c r="P12">
-        <v>0.0006426432911736551</v>
-      </c>
-      <c r="Q12">
-        <v>0.002351594979555556</v>
-      </c>
-      <c r="R12">
-        <v>0.021164354816</v>
-      </c>
-      <c r="S12">
-        <v>5.046386974409802E-06</v>
-      </c>
-      <c r="T12">
-        <v>5.046386974409803E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.178432</v>
-      </c>
-      <c r="I13">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J13">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5516093333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.654828</v>
-      </c>
-      <c r="O13">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="P13">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="Q13">
-        <v>0.03280825218844444</v>
-      </c>
-      <c r="R13">
-        <v>0.295274269696</v>
-      </c>
-      <c r="S13">
-        <v>7.040461386263413E-05</v>
-      </c>
-      <c r="T13">
-        <v>7.040461386263416E-05</v>
+        <v>4.933477210802885E-05</v>
       </c>
     </row>
   </sheetData>
